--- a/ScoreboardFontLetters.xlsx
+++ b/ScoreboardFontLetters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Downloads\Scoreboard\Scoreboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mercuits-my.sharepoint.com/personal/david_kirkham_mercu-it_co_uk/Documents/Documents/GitHub/sts-scoreboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA79B2D8-7F12-47A2-926C-F6145935DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{FA79B2D8-7F12-47A2-926C-F6145935DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABEFAAD4-FA80-46FA-9135-9F10EDFD2A50}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="2490" windowWidth="31725" windowHeight="15345" activeTab="1" xr2:uid="{B6553050-8C9E-4CD5-9D3C-AEA069F2F7FB}"/>
+    <workbookView xWindow="5715" yWindow="0" windowWidth="28800" windowHeight="20985" activeTab="2" xr2:uid="{B6553050-8C9E-4CD5-9D3C-AEA069F2F7FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="6">
   <si>
     <t>x</t>
   </si>
@@ -52,16 +52,13 @@
     <t>]</t>
   </si>
   <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>clock=[</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -85,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -132,16 +129,246 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1817,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV14" s="1" t="s">
         <v>0</v>
@@ -3262,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A43252-43D4-44C5-86FF-CB90F8863836}">
   <dimension ref="A1:AY43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:O16"/>
     </sheetView>
   </sheetViews>
@@ -3303,7 +3530,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="S1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T1">
         <f>IF(A1="x",1,0)</f>
@@ -5331,40 +5558,40 @@
       <c r="C16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
         <v>0</v>
       </c>
       <c r="AY16" t="str">
@@ -5454,7 +5681,7 @@
       <c r="A43" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A16:AQ23 A1:S15">
+  <conditionalFormatting sqref="A1:S15 A16:AQ23">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -5465,284 +5692,262 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E611BAC-D62E-4405-A01A-D01D2276742C}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:X9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4"/>
       <c r="J1" t="str">
-        <f>" letter"&amp;$A$1&amp;1&amp;" = ["</f>
-        <v xml:space="preserve"> letterC1 = [</v>
+        <f>A1&amp;":["</f>
+        <v>/:[</v>
       </c>
       <c r="K1">
-        <f t="shared" ref="K1:K9" si="0">IF(A1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(A1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
       </c>
       <c r="M1">
-        <f t="shared" ref="M1:M9" si="1">IF(B1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(B1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
         <v>1</v>
       </c>
       <c r="O1">
-        <f t="shared" ref="O1:O9" si="2">IF(C1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(C1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
       </c>
       <c r="Q1">
-        <f t="shared" ref="Q1:Q9" si="3">IF(D1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(D1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R1" t="s">
         <v>1</v>
       </c>
       <c r="S1">
-        <f t="shared" ref="S1:S9" si="4">IF(E1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(E1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T1" t="s">
         <v>1</v>
       </c>
       <c r="U1">
-        <f t="shared" ref="U1:U9" si="5">IF(F1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(F1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
       </c>
       <c r="W1">
-        <f t="shared" ref="W1:W9" si="6">IF(G1="x",2,1)</f>
-        <v>1</v>
+        <f>IF(G1="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="X1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="str">
-        <f>" letter"&amp;$A$1&amp;2&amp;" = ["</f>
-        <v xml:space="preserve"> letterC2 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y1" t="str">
+        <f>_xlfn.CONCAT(J1:X1)</f>
+        <v>/:[0,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="4"/>
       <c r="K2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="K2:K9" si="0">IF(A2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="M2:M9" si="1">IF(B2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>1</v>
       </c>
       <c r="O2">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" ref="O2:O9" si="2">IF(C2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="P2" t="s">
         <v>1</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" ref="Q2:Q9" si="3">IF(D2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="R2" t="s">
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="S2:S9" si="4">IF(E2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>1</v>
       </c>
       <c r="U2">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" ref="U2:U9" si="5">IF(F2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>1</v>
       </c>
       <c r="W2">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="W2:W9" si="6">IF(G2="x",1,0)</f>
+        <v>0</v>
       </c>
       <c r="X2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="str">
-        <f>" letter"&amp;$A$1&amp;3&amp;" = ["</f>
-        <v xml:space="preserve"> letterC3 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y9" si="7">_xlfn.CONCAT(J2:X2)</f>
+        <v>0,0,0,0,0,0,0,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="4"/>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="s">
         <v>1</v>
       </c>
       <c r="O3">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="s">
         <v>1</v>
       </c>
       <c r="Q3">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="s">
         <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>1</v>
       </c>
       <c r="U3">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
         <v>1</v>
       </c>
       <c r="W3">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" t="str">
-        <f>" letter"&amp;$A$1&amp;4&amp;" = ["</f>
-        <v xml:space="preserve"> letterC4 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,1,0,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="4"/>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="s">
         <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
       </c>
       <c r="Q4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="s">
         <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>1</v>
@@ -5756,56 +5961,52 @@
       </c>
       <c r="W4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="str">
-        <f>" letter"&amp;$A$1&amp;5&amp;" = ["</f>
-        <v xml:space="preserve"> letterC5 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,1,0,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4"/>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
         <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="s">
         <v>1</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>1</v>
       </c>
       <c r="Q5">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="s">
         <v>1</v>
@@ -5819,56 +6020,52 @@
       </c>
       <c r="U5">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>1</v>
       </c>
       <c r="W5">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="str">
-        <f>" letter"&amp;$A$1&amp;6&amp;" = ["</f>
-        <v xml:space="preserve"> letterC6 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,1,0,0,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="4"/>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
         <v>1</v>
@@ -5882,67 +6079,59 @@
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
         <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
         <v>1</v>
       </c>
       <c r="W6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" t="str">
-        <f>" letter"&amp;$A$1&amp;7&amp;" = ["</f>
-        <v xml:space="preserve"> letterC7 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,1,0,0,0,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4"/>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="s">
         <v>1</v>
       </c>
       <c r="O7">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="s">
         <v>1</v>
@@ -5956,167 +6145,115 @@
       </c>
       <c r="S7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
         <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
         <v>1</v>
       </c>
       <c r="W7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" t="str">
-        <f>" letter"&amp;$A$1&amp;8&amp;" = ["</f>
-        <v xml:space="preserve"> letterC8 = [</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,1,0,0,0,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="4"/>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>1</v>
       </c>
       <c r="O8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="s">
         <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="s">
         <v>1</v>
       </c>
       <c r="S8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="s">
         <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
         <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" t="str">
-        <f>" letter"&amp;$A$1&amp;9&amp;" = ["</f>
-        <v xml:space="preserve"> letterC9 = [</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="Y8" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="4"/>
+      <c r="Y9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y10" t="str">
+        <f>_xlfn.CONCAT(Y1:Y9)</f>
+        <v>/:[0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,1,0,0,0,0,0,0,1,0,0,0,0,0,0,0,0,0,0]</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -6124,5 +6261,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>